--- a/data/pca/factorExposure/factorExposure_2013-01-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-30.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001170671003398984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001820651009151833</v>
+      </c>
+      <c r="C2">
+        <v>-0.03277801506122508</v>
+      </c>
+      <c r="D2">
+        <v>-0.005493438488156538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003466629847367002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006327947119935143</v>
+      </c>
+      <c r="C4">
+        <v>-0.08475960726209085</v>
+      </c>
+      <c r="D4">
+        <v>-0.078982896155938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003951379203306205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01420593441023444</v>
+      </c>
+      <c r="C6">
+        <v>-0.1138569122636883</v>
+      </c>
+      <c r="D6">
+        <v>-0.03394209535215471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002080485485882488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005065114725018253</v>
+      </c>
+      <c r="C7">
+        <v>-0.05761515335668742</v>
+      </c>
+      <c r="D7">
+        <v>-0.03598676299536981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009103518652083656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005810577344401354</v>
+      </c>
+      <c r="C8">
+        <v>-0.03841847606272651</v>
+      </c>
+      <c r="D8">
+        <v>-0.04563528803404337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003206743281255399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004465101661104634</v>
+      </c>
+      <c r="C9">
+        <v>-0.07080581966361695</v>
+      </c>
+      <c r="D9">
+        <v>-0.07124317393760793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002327205391891207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005360545829828122</v>
+      </c>
+      <c r="C10">
+        <v>-0.05731549134892677</v>
+      </c>
+      <c r="D10">
+        <v>0.198052932087639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002490145364901622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005769190395515524</v>
+      </c>
+      <c r="C11">
+        <v>-0.08063813978579731</v>
+      </c>
+      <c r="D11">
+        <v>-0.06021737320842754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005510787633943505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004072997371114604</v>
+      </c>
+      <c r="C12">
+        <v>-0.06419398124830233</v>
+      </c>
+      <c r="D12">
+        <v>-0.04724064557197086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002524465817671122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008771566811685524</v>
+      </c>
+      <c r="C13">
+        <v>-0.06594039697418631</v>
+      </c>
+      <c r="D13">
+        <v>-0.06345739842078015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009491028017341589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001618876745058834</v>
+      </c>
+      <c r="C14">
+        <v>-0.04617663284218902</v>
+      </c>
+      <c r="D14">
+        <v>-0.006992209278555949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008019927664560875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006063354215028699</v>
+      </c>
+      <c r="C15">
+        <v>-0.04290668171483836</v>
+      </c>
+      <c r="D15">
+        <v>-0.02776769571336309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008114981501557648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005076909872450994</v>
+      </c>
+      <c r="C16">
+        <v>-0.06575714328115601</v>
+      </c>
+      <c r="D16">
+        <v>-0.04663916878645873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>1.514256183043405e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008895499588512329</v>
+      </c>
+      <c r="C20">
+        <v>-0.06562922530746679</v>
+      </c>
+      <c r="D20">
+        <v>-0.04350172254330565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005550594588866249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009990596905734053</v>
+      </c>
+      <c r="C21">
+        <v>-0.02134353926142199</v>
+      </c>
+      <c r="D21">
+        <v>-0.03737913295086712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01638150444528749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006734770471266429</v>
+      </c>
+      <c r="C22">
+        <v>-0.09455209739950511</v>
+      </c>
+      <c r="D22">
+        <v>-0.1070938643872921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01668323249986586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006552994828280687</v>
+      </c>
+      <c r="C23">
+        <v>-0.09534416532251806</v>
+      </c>
+      <c r="D23">
+        <v>-0.1071793630979506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001251608490493972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005456185650058074</v>
+      </c>
+      <c r="C24">
+        <v>-0.07647372344652151</v>
+      </c>
+      <c r="D24">
+        <v>-0.06089936937361081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003870085986777918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003003822166987717</v>
+      </c>
+      <c r="C25">
+        <v>-0.07819259592067974</v>
+      </c>
+      <c r="D25">
+        <v>-0.06622256274348393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00478880979764163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003660778588568235</v>
+      </c>
+      <c r="C26">
+        <v>-0.04188004444937624</v>
+      </c>
+      <c r="D26">
+        <v>-0.02113070853636873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00612678716207395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001040824590474198</v>
+      </c>
+      <c r="C28">
+        <v>-0.1060557475478287</v>
+      </c>
+      <c r="D28">
+        <v>0.3159357397272767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001002682186788661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.00319878066260055</v>
+      </c>
+      <c r="C29">
+        <v>-0.04936472278779835</v>
+      </c>
+      <c r="D29">
+        <v>-0.004753654668455365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003261624986683438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009504157592528942</v>
+      </c>
+      <c r="C30">
+        <v>-0.142383333937483</v>
+      </c>
+      <c r="D30">
+        <v>-0.09329694828646871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00114691229769807</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006238914128229641</v>
+      </c>
+      <c r="C31">
+        <v>-0.04447750723598327</v>
+      </c>
+      <c r="D31">
+        <v>-0.03045964906737747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000624859828596986</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004141889383070727</v>
+      </c>
+      <c r="C32">
+        <v>-0.04112760328602792</v>
+      </c>
+      <c r="D32">
+        <v>-0.01969199849798034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002441603458121121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008361770907921479</v>
+      </c>
+      <c r="C33">
+        <v>-0.08606170769604644</v>
+      </c>
+      <c r="D33">
+        <v>-0.06840048730311807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004214282932324965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003979147094459904</v>
+      </c>
+      <c r="C34">
+        <v>-0.05798568541584952</v>
+      </c>
+      <c r="D34">
+        <v>-0.05319169154977777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001811740294872911</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004931770152536124</v>
+      </c>
+      <c r="C35">
+        <v>-0.04041462738647913</v>
+      </c>
+      <c r="D35">
+        <v>-0.01708729763755967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003767773505625009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00112277332985494</v>
+      </c>
+      <c r="C36">
+        <v>-0.02450181214664123</v>
+      </c>
+      <c r="D36">
+        <v>-0.02233814390635313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002256813209322171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00952433862483737</v>
+      </c>
+      <c r="C38">
+        <v>-0.03559125197293574</v>
+      </c>
+      <c r="D38">
+        <v>-0.01508199858645967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01155497400668412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005440978630024831</v>
+      </c>
+      <c r="C39">
+        <v>-0.1164274156573508</v>
+      </c>
+      <c r="D39">
+        <v>-0.07100399514415982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00969576118513954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002620877634546514</v>
+      </c>
+      <c r="C40">
+        <v>-0.08835757136142046</v>
+      </c>
+      <c r="D40">
+        <v>-0.01845621012255429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001475199145252783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007229632519802712</v>
+      </c>
+      <c r="C41">
+        <v>-0.03812273291227623</v>
+      </c>
+      <c r="D41">
+        <v>-0.03352701745864591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002769989494454124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004016079406985834</v>
+      </c>
+      <c r="C43">
+        <v>-0.05333353267826972</v>
+      </c>
+      <c r="D43">
+        <v>-0.02300225620311294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004152765071478</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003416174106441262</v>
+      </c>
+      <c r="C44">
+        <v>-0.109569738432276</v>
+      </c>
+      <c r="D44">
+        <v>-0.06912568257810356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001041514195806492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002225352510641139</v>
+      </c>
+      <c r="C46">
+        <v>-0.03357182675544645</v>
+      </c>
+      <c r="D46">
+        <v>-0.03266364812146694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003837206337828479</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.00268235349640545</v>
+      </c>
+      <c r="C47">
+        <v>-0.03705680993591678</v>
+      </c>
+      <c r="D47">
+        <v>-0.02250845202422048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003747438072385274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006608730769868037</v>
+      </c>
+      <c r="C48">
+        <v>-0.03075654682118977</v>
+      </c>
+      <c r="D48">
+        <v>-0.03102942033523362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01196991660193335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.0153130876658512</v>
+      </c>
+      <c r="C49">
+        <v>-0.1840967523620292</v>
+      </c>
+      <c r="D49">
+        <v>-0.01152812860643191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001512209321099294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003614745584305445</v>
+      </c>
+      <c r="C50">
+        <v>-0.0435842094744085</v>
+      </c>
+      <c r="D50">
+        <v>-0.03405507804178095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009139849613090727</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004491938126480665</v>
+      </c>
+      <c r="C51">
+        <v>-0.02720814474272639</v>
+      </c>
+      <c r="D51">
+        <v>-0.01836412242600485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008625581630019119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0208437840173562</v>
+      </c>
+      <c r="C53">
+        <v>-0.1693101548663792</v>
+      </c>
+      <c r="D53">
+        <v>-0.02853884786858685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001347550167384544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008708168629671564</v>
+      </c>
+      <c r="C54">
+        <v>-0.05517291378872076</v>
+      </c>
+      <c r="D54">
+        <v>-0.0423637538178333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003778594750629711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009465345928354102</v>
+      </c>
+      <c r="C55">
+        <v>-0.1087253311634949</v>
+      </c>
+      <c r="D55">
+        <v>-0.03965327939297126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003001013180688161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02007375546307251</v>
+      </c>
+      <c r="C56">
+        <v>-0.1744036881935782</v>
+      </c>
+      <c r="D56">
+        <v>-0.02897808625851725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006721479542016589</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01976631391070779</v>
+      </c>
+      <c r="C58">
+        <v>-0.1112787027805311</v>
+      </c>
+      <c r="D58">
+        <v>-0.05215768605190759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006903744601864032</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009612850627165524</v>
+      </c>
+      <c r="C59">
+        <v>-0.1614330583111245</v>
+      </c>
+      <c r="D59">
+        <v>0.3155787925038606</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003779134531673269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02378317754403821</v>
+      </c>
+      <c r="C60">
+        <v>-0.2207331004933208</v>
+      </c>
+      <c r="D60">
+        <v>-0.0336540727825601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01349077426741781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00167934802514928</v>
+      </c>
+      <c r="C61">
+        <v>-0.09564763015601478</v>
+      </c>
+      <c r="D61">
+        <v>-0.05745628062923036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637964238335994</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448189473357049</v>
+      </c>
+      <c r="C62">
+        <v>-0.0929826677251437</v>
+      </c>
+      <c r="D62">
+        <v>-0.04546526694808855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0009269564299519832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006289843232974393</v>
+      </c>
+      <c r="C63">
+        <v>-0.05537646915640829</v>
+      </c>
+      <c r="D63">
+        <v>-0.02421520625909942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0002319432474600463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01538145135648241</v>
+      </c>
+      <c r="C64">
+        <v>-0.1054143610560222</v>
+      </c>
+      <c r="D64">
+        <v>-0.05980068051946133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002937255881884601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01797821943708929</v>
+      </c>
+      <c r="C65">
+        <v>-0.1230588912995934</v>
+      </c>
+      <c r="D65">
+        <v>-0.01948561047121506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007367532474359449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01311665299585674</v>
+      </c>
+      <c r="C66">
+        <v>-0.1606046395739844</v>
+      </c>
+      <c r="D66">
+        <v>-0.1128976246322065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00361247232140014</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01570070169978888</v>
+      </c>
+      <c r="C67">
+        <v>-0.06650000373684688</v>
+      </c>
+      <c r="D67">
+        <v>-0.02482198266134489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006635847321795512</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005235798370715324</v>
+      </c>
+      <c r="C68">
+        <v>-0.08605665958825737</v>
+      </c>
+      <c r="D68">
+        <v>0.2561233062950785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002187580927281458</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006205146554854546</v>
+      </c>
+      <c r="C69">
+        <v>-0.05077447616919757</v>
+      </c>
+      <c r="D69">
+        <v>-0.03718420160465043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0002382070410530067</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001914048598443647</v>
+      </c>
+      <c r="C70">
+        <v>-0.002771713484548179</v>
+      </c>
+      <c r="D70">
+        <v>-0.003060461523166833</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0007423240293882557</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005795799779423192</v>
+      </c>
+      <c r="C71">
+        <v>-0.09592920879675035</v>
+      </c>
+      <c r="D71">
+        <v>0.3058345487848955</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003819156498298863</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01606224406656173</v>
+      </c>
+      <c r="C72">
+        <v>-0.1537948394462501</v>
+      </c>
+      <c r="D72">
+        <v>-0.02154005870444714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0111204172622957</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03075347557315654</v>
+      </c>
+      <c r="C73">
+        <v>-0.278571949412651</v>
+      </c>
+      <c r="D73">
+        <v>-0.05199109482887978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004523204791145452</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00194764149983393</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047729249469885</v>
+      </c>
+      <c r="D74">
+        <v>-0.03624841823710567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002497425244501663</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01098015255410195</v>
+      </c>
+      <c r="C75">
+        <v>-0.1256023300198426</v>
+      </c>
+      <c r="D75">
+        <v>-0.02236664097870054</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00967228494862412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02176182671057987</v>
+      </c>
+      <c r="C76">
+        <v>-0.1487576020055481</v>
+      </c>
+      <c r="D76">
+        <v>-0.0599673690390434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001052619645716935</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02388106450223234</v>
+      </c>
+      <c r="C77">
+        <v>-0.1275841644277541</v>
+      </c>
+      <c r="D77">
+        <v>-0.09008272565842763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0004372477562477872</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01476720255444425</v>
+      </c>
+      <c r="C78">
+        <v>-0.09707916051122191</v>
+      </c>
+      <c r="D78">
+        <v>-0.0694311225730907</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02280868021343976</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03764007794187709</v>
+      </c>
+      <c r="C79">
+        <v>-0.1559114052289625</v>
+      </c>
+      <c r="D79">
+        <v>-0.03335029779464276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006591799535841982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01047041890485794</v>
+      </c>
+      <c r="C80">
+        <v>-0.04075973560717393</v>
+      </c>
+      <c r="D80">
+        <v>-0.02968836564865976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001348921745292607</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01534963057913584</v>
+      </c>
+      <c r="C81">
+        <v>-0.1272201553748666</v>
+      </c>
+      <c r="D81">
+        <v>-0.03862728502433366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005825896813070094</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01979366730933358</v>
+      </c>
+      <c r="C82">
+        <v>-0.1405632355467863</v>
+      </c>
+      <c r="D82">
+        <v>-0.04188823903035838</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008219341784593224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01006146570823333</v>
+      </c>
+      <c r="C83">
+        <v>-0.056878860377427</v>
+      </c>
+      <c r="D83">
+        <v>-0.05733426592306003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01335992596199854</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169375746207973</v>
+      </c>
+      <c r="C84">
+        <v>-0.03676306812875887</v>
+      </c>
+      <c r="D84">
+        <v>0.01093492204139716</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01357355468575855</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0282551199279736</v>
+      </c>
+      <c r="C85">
+        <v>-0.1239955898215385</v>
+      </c>
+      <c r="D85">
+        <v>-0.04364906869258568</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001764386623830119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006084050489434029</v>
+      </c>
+      <c r="C86">
+        <v>-0.0515103160331122</v>
+      </c>
+      <c r="D86">
+        <v>-0.02068379285830624</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004021315908475267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01021167373241734</v>
+      </c>
+      <c r="C87">
+        <v>-0.1299061446639714</v>
+      </c>
+      <c r="D87">
+        <v>-0.07123110802973381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01177458087775453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002819818568292747</v>
+      </c>
+      <c r="C88">
+        <v>-0.06640255968085274</v>
+      </c>
+      <c r="D88">
+        <v>-0.01387828631568121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01408687911324101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001421754939066276</v>
+      </c>
+      <c r="C89">
+        <v>-0.1467007968461394</v>
+      </c>
+      <c r="D89">
+        <v>0.3428390403996015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002332579064313476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006977614738473594</v>
+      </c>
+      <c r="C90">
+        <v>-0.121220729801619</v>
+      </c>
+      <c r="D90">
+        <v>0.3226887185896625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006882068226633119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0104544873769475</v>
+      </c>
+      <c r="C91">
+        <v>-0.1023214769755106</v>
+      </c>
+      <c r="D91">
+        <v>-0.01942074295064384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008022419383544805</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009249195960149733</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358969927565236</v>
+      </c>
+      <c r="D92">
+        <v>0.3289381764779522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0004282081892657953</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004814104775430523</v>
+      </c>
+      <c r="C93">
+        <v>-0.1046572903080302</v>
+      </c>
+      <c r="D93">
+        <v>0.3059892779428823</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003452004375972911</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02254682150379827</v>
+      </c>
+      <c r="C94">
+        <v>-0.1473795189207722</v>
+      </c>
+      <c r="D94">
+        <v>-0.05040290348352479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004082733028471605</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0165048270415705</v>
+      </c>
+      <c r="C95">
+        <v>-0.1266708329166715</v>
+      </c>
+      <c r="D95">
+        <v>-0.05716836295672033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0001927728224655105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03598743110839495</v>
+      </c>
+      <c r="C97">
+        <v>-0.2122594700753279</v>
+      </c>
+      <c r="D97">
+        <v>0.01166030851171786</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002868332471151948</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0366489377510818</v>
+      </c>
+      <c r="C98">
+        <v>-0.2492119698981202</v>
+      </c>
+      <c r="D98">
+        <v>-0.0474074667819261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847890957481572</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9821918804549923</v>
+      </c>
+      <c r="C99">
+        <v>0.1165505799631555</v>
+      </c>
+      <c r="D99">
+        <v>0.02754595064196133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009072605491156977</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003236240515033839</v>
+      </c>
+      <c r="C101">
+        <v>-0.04954831470889582</v>
+      </c>
+      <c r="D101">
+        <v>-0.004867576138830284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
